--- a/src/main/resources/externalData/testdata.xlsx
+++ b/src/main/resources/externalData/testdata.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="signin" sheetId="2" r:id="rId1"/>
     <sheet name="createaccount" sheetId="3" r:id="rId2"/>
+    <sheet name="searchdata" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>FirstName</t>
   </si>
@@ -84,6 +85,15 @@
   </si>
   <si>
     <t>sap1988test@gmail.com</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Jackets for women</t>
+  </si>
+  <si>
+    <t>tops</t>
   </si>
 </sst>
 </file>
@@ -515,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -623,4 +633,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/externalData/testdata.xlsx
+++ b/src/main/resources/externalData/testdata.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF4B7D5-F493-43AA-80D9-AFE1ADDCB197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="signin" sheetId="2" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>FirstName</t>
   </si>
@@ -30,30 +31,30 @@
     <t>Password</t>
   </si>
   <si>
-    <t>QqwertyQ@123</t>
-  </si>
-  <si>
-    <t>abctestemail1@gmail.com</t>
-  </si>
-  <si>
-    <t>abctestemail2@gmail.com</t>
-  </si>
-  <si>
-    <t>abctestemail3@gmail.com</t>
-  </si>
-  <si>
-    <t>abctestemail4@gmail.com</t>
-  </si>
-  <si>
-    <t>abctestemail5@gmail.com</t>
-  </si>
-  <si>
     <t>abc1</t>
   </si>
   <si>
     <t>abc2</t>
   </si>
   <si>
+    <t>fds1</t>
+  </si>
+  <si>
+    <t>fds2</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Jackets for women</t>
+  </si>
+  <si>
+    <t>tops</t>
+  </si>
+  <si>
+    <t>QqwertyQ@123!</t>
+  </si>
+  <si>
     <t>abc3</t>
   </si>
   <si>
@@ -63,12 +64,6 @@
     <t>abc5</t>
   </si>
   <si>
-    <t>fds1</t>
-  </si>
-  <si>
-    <t>fds2</t>
-  </si>
-  <si>
     <t>fds3</t>
   </si>
   <si>
@@ -78,28 +73,25 @@
     <t>fds5</t>
   </si>
   <si>
-    <t>sap1986test@gmail.com</t>
-  </si>
-  <si>
-    <t>sap1987test@gmail.com</t>
-  </si>
-  <si>
-    <t>sap1988test@gmail.com</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>Jackets for women</t>
-  </si>
-  <si>
-    <t>tops</t>
+    <t>abctestemail2378!!!!@gmail.com</t>
+  </si>
+  <si>
+    <t>abctestemail2379!!!!@gmail.com</t>
+  </si>
+  <si>
+    <t>abctestemail2370!!!!@gmail.com</t>
+  </si>
+  <si>
+    <t>abctestemail2371!!!!@gmail.com</t>
+  </si>
+  <si>
+    <t>abctestemail2372!!!!@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,14 +146,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -199,7 +194,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -271,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -444,20 +439,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.73046875" customWidth="1"/>
+    <col min="2" max="2" width="21.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -465,79 +460,81 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3:B5" r:id="rId2" display="QqwertyQ@123"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3:A6" r:id="rId5" display="abctestemail1@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A5" r:id="rId8"/>
-    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D947695A-BA49-459D-92B6-F1C09A1784BE}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{4885726A-FA44-43A1-A909-70C170C18954}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{A2D57DA5-F57B-4EC0-9B60-86091CC06684}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{092947D6-816E-4A87-86C1-6444F869D5E6}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{334C9F71-A274-4C0A-B827-F4D506A14ABF}"/>
+    <hyperlink ref="A2:A5" r:id="rId7" display="abctestemail237!!@gmail.com" xr:uid="{76FE5A68-8A16-4235-8B37-785AB4804E90}"/>
+    <hyperlink ref="A2" r:id="rId8" xr:uid="{BF33BD21-C36E-4BF5-8837-82B17F81FB17}"/>
+    <hyperlink ref="A3" r:id="rId9" xr:uid="{5DCB839A-62CC-4149-89BF-11A0CBAC0BC0}"/>
+    <hyperlink ref="A4" r:id="rId10" xr:uid="{6DC029EA-4096-45AF-9C95-C50D66D2F7A8}"/>
+    <hyperlink ref="A5" r:id="rId11" xr:uid="{8ED416A2-7413-4071-B44D-BE3896560478}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="3" max="3" width="33.265625" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -551,116 +548,118 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3:C6" r:id="rId2" display="sap1986test@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{429AEC22-2A7D-41D1-BEEC-366D56F58E46}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{E1D422F6-BB11-4669-98CC-C9FE14F78322}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{7153B564-111F-433C-83F0-D036529A0348}"/>
+    <hyperlink ref="C2:C5" r:id="rId4" display="abctestemail237!!@gmail.com" xr:uid="{0FFD8762-3E94-40D5-A492-71CC8771AF28}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{04803DC0-ED29-4AB8-A6E0-D889F7E5DD99}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{DDD1A662-298D-4DFD-AB8B-D5FBF8AFCADB}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{16B6CB8B-815F-4F1E-A5E8-70C68FEF68F2}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{CFD60770-CC08-4A55-B6DA-05857299C7F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
